--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_3_34.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_3_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3281194.411714165</v>
+        <v>3279306.830197762</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -656,22 +656,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>309.7029429582356</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>300.8638984122743</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -716,7 +716,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -814,19 +814,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>46.91044915897053</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>156.1271626621473</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -896,7 +896,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -905,13 +905,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -944,22 +944,22 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>214.3742603489904</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>75.13651949521405</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1069,10 +1069,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>104.9391370809244</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1105,22 +1105,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>189.5968436493439</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>220.9109866599763</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1148,10 +1148,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>113.1616335959377</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,7 +1184,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -1193,13 +1193,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>59.7268375758684</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1345,10 +1345,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>133.4548648132222</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
@@ -1585,7 +1585,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>169.7438101404423</v>
+        <v>59.77945773664936</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1774,7 +1774,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>115.5269768002173</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -1822,16 +1822,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>97.58716462297957</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1898,7 +1898,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2005,19 +2005,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>93.87916681139818</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>163.4511147387061</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,19 +2236,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>20.37729220500664</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>164.3675597136116</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2302,10 +2302,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2494,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,19 +2521,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>183.1796758467002</v>
+        <v>235.5975646709542</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
@@ -2713,10 +2713,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>101.0041688483414</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2725,10 +2725,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>194.8745056678676</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>124.6287235533802</v>
       </c>
       <c r="C31" t="n">
         <v>112.0435644700708</v>
       </c>
       <c r="D31" t="n">
-        <v>56.25866922412899</v>
+        <v>93.41221638965528</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>90.2177913943742</v>
+        <v>90.21779139437417</v>
       </c>
       <c r="G31" t="n">
         <v>111.2903118348205</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897908</v>
+        <v>93.71057173897906</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1.599126004632296</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523575</v>
+        <v>54.76109577523572</v>
       </c>
       <c r="S31" t="n">
         <v>142.7175533550462</v>
@@ -3007,16 +3007,16 @@
         <v>231.0340957700203</v>
       </c>
       <c r="V31" t="n">
-        <v>196.934386695271</v>
+        <v>196.9343866952709</v>
       </c>
       <c r="W31" t="n">
-        <v>231.319741708034</v>
+        <v>231.3197417080339</v>
       </c>
       <c r="X31" t="n">
         <v>170.5063987604801</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235378</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3199,7 +3199,7 @@
         <v>77.28915789329058</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H34" t="n">
         <v>80.78193823789546</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
@@ -3332,7 +3332,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896921</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692853</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="41">
@@ -3752,13 +3752,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H41" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,25 +3898,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D43" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1993.54646147304</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C2" t="n">
-        <v>1993.54646147304</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>1635.28076286629</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>1249.492510268045</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>838.5066054784379</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
         <v>534.603677789272</v>
@@ -4328,7 +4328,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
@@ -4364,16 +4364,16 @@
         <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1993.54646147304</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1993.54646147304</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>1993.54646147304</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y2" t="n">
-        <v>1993.54646147304</v>
+        <v>1272.344242153658</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4410,19 +4410,19 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,16 +4462,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>350.9495687306105</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>350.9495687306105</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
         <v>53.94298182036445</v>
@@ -4510,28 +4510,28 @@
         <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>532.5980335608502</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>532.5980335608502</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U4" t="n">
-        <v>532.5980335608502</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="V4" t="n">
-        <v>532.5980335608502</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="W4" t="n">
-        <v>532.5980335608502</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="X4" t="n">
-        <v>532.5980335608502</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>532.5980335608502</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1317.778685247039</v>
+        <v>1359.546482223453</v>
       </c>
       <c r="C5" t="n">
-        <v>1317.778685247039</v>
+        <v>990.5839652830418</v>
       </c>
       <c r="D5" t="n">
-        <v>959.5129866402885</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="E5" t="n">
-        <v>959.5129866402885</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F5" t="n">
-        <v>548.527081850681</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4592,25 +4592,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2425.580744630543</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>2094.517857286973</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W5" t="n">
-        <v>2094.517857286973</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="X5" t="n">
-        <v>2094.517857286973</v>
+        <v>2136.285654263387</v>
       </c>
       <c r="Y5" t="n">
-        <v>1704.378525311161</v>
+        <v>1746.146322287575</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424003</v>
@@ -4644,25 +4644,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4683,10 +4683,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>296.2710210862863</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>296.2710210862863</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>296.2710210862863</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>296.2710210862863</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>296.2710210862863</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>296.2710210862863</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600561</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600561</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="V7" t="n">
-        <v>698.7120650600561</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W7" t="n">
-        <v>698.7120650600561</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X7" t="n">
-        <v>698.7120650600561</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>477.919485916526</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4778,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>962.1194880117298</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="C8" t="n">
-        <v>593.1569710713181</v>
+        <v>1317.778685247039</v>
       </c>
       <c r="D8" t="n">
-        <v>593.1569710713181</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E8" t="n">
-        <v>593.1569710713181</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F8" t="n">
-        <v>586.2114703221147</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>168.2476622203015</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>168.2476622203015</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4832,22 +4832,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U8" t="n">
-        <v>2443.387305656314</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V8" t="n">
-        <v>2112.324418312743</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W8" t="n">
-        <v>2112.324418312743</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="X8" t="n">
-        <v>1738.858660051663</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="Y8" t="n">
-        <v>1348.719328075852</v>
+        <v>1540.921096014692</v>
       </c>
     </row>
     <row r="9">
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>559.1928012785273</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>409.0761618661916</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>261.1630682837985</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>114.2731207858881</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036445</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>409.5384547146241</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5033,7 +5033,7 @@
         <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
@@ -5121,25 +5121,25 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>380.9740019042124</v>
       </c>
       <c r="L12" t="n">
-        <v>901.674922584592</v>
+        <v>627.7391298106764</v>
       </c>
       <c r="M12" t="n">
-        <v>1208.995055864553</v>
+        <v>1396.107276203138</v>
       </c>
       <c r="N12" t="n">
-        <v>1538.857683528586</v>
+        <v>1725.969903867171</v>
       </c>
       <c r="O12" t="n">
-        <v>2208.321444831246</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5221,19 +5221,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1075.21084526296</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U13" t="n">
-        <v>786.0822064765186</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V13" t="n">
-        <v>614.6238123952638</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W13" t="n">
         <v>325.2066423583032</v>
@@ -5270,7 +5270,7 @@
         <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
@@ -5279,16 +5279,16 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5303,10 +5303,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
         <v>4262.357857465301</v>
@@ -5355,25 +5355,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341673</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M15" t="n">
-        <v>1302.911127126629</v>
+        <v>966.6932390011336</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1296.555866665166</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>1966.019627967826</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2486.320249703573</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383383</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383383</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383383</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5437,19 +5437,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1382.222354598087</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1158.436939387592</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U16" t="n">
-        <v>869.3083006011506</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V16" t="n">
-        <v>614.6238123952637</v>
+        <v>675.007103038344</v>
       </c>
       <c r="W16" t="n">
-        <v>325.2066423583032</v>
+        <v>576.4342094797788</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028584</v>
+        <v>576.4342094797788</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>355.6416303362487</v>
       </c>
     </row>
     <row r="17">
@@ -5489,49 +5489,49 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5549,16 +5549,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5592,25 +5592,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>233.7852434110091</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>644.6755122555218</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L18" t="n">
-        <v>891.4406401619858</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M18" t="n">
-        <v>1198.760773441947</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N18" t="n">
-        <v>1528.62340110598</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O18" t="n">
-        <v>1808.163466324677</v>
+        <v>2103.010087623274</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>565.9270610048578</v>
+        <v>192.0445326839204</v>
       </c>
       <c r="C19" t="n">
-        <v>565.9270610048578</v>
+        <v>192.0445326839204</v>
       </c>
       <c r="D19" t="n">
-        <v>415.8104215925219</v>
+        <v>192.0445326839204</v>
       </c>
       <c r="E19" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
         <v>97.21709146028584</v>
@@ -5671,7 +5671,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
         <v>259.7851881688073</v>
@@ -5680,7 +5680,7 @@
         <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5689,34 +5689,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1333.8141344582</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1110.028719247705</v>
+        <v>964.1357418247852</v>
       </c>
       <c r="U19" t="n">
-        <v>1110.028719247705</v>
+        <v>964.1357418247852</v>
       </c>
       <c r="V19" t="n">
-        <v>855.3442310418184</v>
+        <v>709.4512536188984</v>
       </c>
       <c r="W19" t="n">
-        <v>565.9270610048578</v>
+        <v>420.0340835819377</v>
       </c>
       <c r="X19" t="n">
-        <v>565.9270610048578</v>
+        <v>192.0445326839204</v>
       </c>
       <c r="Y19" t="n">
-        <v>565.9270610048578</v>
+        <v>192.0445326839204</v>
       </c>
     </row>
     <row r="20">
@@ -5753,7 +5753,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5768,7 +5768,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5829,28 +5829,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>462.7283310300498</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>709.4934589365139</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1346.676219880508</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8299478944155</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8299478944155</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>265.7133084820797</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>117.8002148996866</v>
       </c>
       <c r="F22" t="n">
         <v>97.21709146028584</v>
@@ -5908,52 +5908,52 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241959</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688075</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799367</v>
       </c>
       <c r="M22" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471195</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>1332.888432463345</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U22" t="n">
-        <v>1043.759793676903</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V22" t="n">
-        <v>789.0753054710162</v>
+        <v>933.2366688293934</v>
       </c>
       <c r="W22" t="n">
-        <v>499.6581354340557</v>
+        <v>643.8194987924328</v>
       </c>
       <c r="X22" t="n">
-        <v>499.6581354340557</v>
+        <v>415.8299478944155</v>
       </c>
       <c r="Y22" t="n">
-        <v>278.8655562905255</v>
+        <v>415.8299478944155</v>
       </c>
     </row>
     <row r="23">
@@ -5981,31 +5981,31 @@
         <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
@@ -6066,28 +6066,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>539.5926371926337</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>846.9127704725952</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1651.324348736746</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383389</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383389</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383389</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383389</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383389</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383389</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383389</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028584</v>
@@ -6148,10 +6148,10 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M25" t="n">
         <v>779.0639759471192</v>
@@ -6166,31 +6166,31 @@
         <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557903</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.130855347408</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U25" t="n">
-        <v>1090.100879744681</v>
+        <v>726.1584037733169</v>
       </c>
       <c r="V25" t="n">
-        <v>835.416391538794</v>
+        <v>726.1584037733169</v>
       </c>
       <c r="W25" t="n">
-        <v>545.9992215018333</v>
+        <v>436.7412337363563</v>
       </c>
       <c r="X25" t="n">
-        <v>318.0096706038159</v>
+        <v>208.7516828383389</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383389</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6200,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D26" t="n">
         <v>1701.093169003441</v>
@@ -6212,25 +6212,25 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
@@ -6245,31 +6245,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6300,28 +6300,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>498.9056400965593</v>
       </c>
       <c r="L27" t="n">
-        <v>534.5429807341674</v>
+        <v>745.6707680030233</v>
       </c>
       <c r="M27" t="n">
-        <v>1247.466478653857</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N27" t="n">
-        <v>2051.878056918008</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O27" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>584.7466045204287</v>
+        <v>199.2415044384085</v>
       </c>
       <c r="C28" t="n">
-        <v>415.8104215925218</v>
+        <v>199.2415044384085</v>
       </c>
       <c r="D28" t="n">
-        <v>415.8104215925218</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E28" t="n">
-        <v>415.8104215925218</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
-        <v>415.8104215925218</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>247.6350999123424</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241958</v>
@@ -6391,7 +6391,7 @@
         <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6403,31 +6403,31 @@
         <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T28" t="n">
-        <v>1298.996260473455</v>
+        <v>964.1357418247861</v>
       </c>
       <c r="U28" t="n">
-        <v>1102.153325455407</v>
+        <v>964.1357418247861</v>
       </c>
       <c r="V28" t="n">
-        <v>1102.153325455407</v>
+        <v>709.4512536188993</v>
       </c>
       <c r="W28" t="n">
-        <v>812.7361554184461</v>
+        <v>420.0340835819386</v>
       </c>
       <c r="X28" t="n">
-        <v>584.7466045204287</v>
+        <v>420.0340835819386</v>
       </c>
       <c r="Y28" t="n">
-        <v>584.7466045204287</v>
+        <v>199.2415044384085</v>
       </c>
     </row>
     <row r="29">
@@ -6449,7 +6449,7 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G29" t="n">
         <v>488.1932370805469</v>
@@ -6540,22 +6540,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2080.218333389736</v>
       </c>
       <c r="P30" t="n">
         <v>2317.834075963124</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>565.4200295030877</v>
+        <v>604.5641438163788</v>
       </c>
       <c r="C31" t="n">
-        <v>452.2447118565512</v>
+        <v>491.3888261698427</v>
       </c>
       <c r="D31" t="n">
-        <v>395.4177732463199</v>
+        <v>397.0330520388777</v>
       </c>
       <c r="E31" t="n">
-        <v>395.4177732463199</v>
+        <v>397.0330520388777</v>
       </c>
       <c r="F31" t="n">
-        <v>304.2886910297804</v>
+        <v>305.9039698223381</v>
       </c>
       <c r="G31" t="n">
-        <v>191.8742346309718</v>
+        <v>193.4895134235295</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>98.83237025284375</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028587</v>
@@ -6625,13 +6625,13 @@
         <v>369.0876362933502</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667509</v>
+        <v>671.4509053667508</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962055</v>
+        <v>997.6688721962051</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286025</v>
+        <v>1322.864205286024</v>
       </c>
       <c r="O31" t="n">
         <v>1611.390407353693</v>
@@ -6640,7 +6640,7 @@
         <v>1842.641396021647</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056075</v>
+        <v>1936.126063056074</v>
       </c>
       <c r="R31" t="n">
         <v>1880.811824899271</v>
@@ -6655,16 +6655,16 @@
         <v>1335.260356662</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737483</v>
+        <v>1136.336733737484</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818936</v>
+        <v>902.6804289818938</v>
       </c>
       <c r="X31" t="n">
-        <v>730.451743365247</v>
+        <v>730.4517433652477</v>
       </c>
       <c r="Y31" t="n">
-        <v>565.4200295030877</v>
+        <v>730.4517433652477</v>
       </c>
     </row>
     <row r="32">
@@ -6686,25 +6686,25 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
@@ -6725,10 +6725,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
         <v>4262.3578574653</v>
@@ -6786,16 +6786,16 @@
         <v>534.5429807341674</v>
       </c>
       <c r="M33" t="n">
-        <v>1247.466478653857</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N33" t="n">
-        <v>2051.878056918008</v>
+        <v>1453.977845975555</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108327</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229669</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506722</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083205</v>
       </c>
       <c r="F34" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G34" t="n">
         <v>221.5295092103129</v>
@@ -6862,7 +6862,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6898,10 +6898,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010313</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
         <v>488.193237080547</v>
@@ -6932,55 +6932,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7011,25 +7011,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P36" t="n">
         <v>2317.834075963124</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103131</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525398</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7114,7 +7114,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
         <v>1996.265827986523</v>
@@ -7126,19 +7126,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="38">
@@ -7148,28 +7148,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805463</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
@@ -7178,7 +7178,7 @@
         <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
@@ -7196,28 +7196,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7248,25 +7248,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>806.1650729342607</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1113.485206214222</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1443.347833878255</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P39" t="n">
         <v>2317.834075963124</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504513</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103131</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982974</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
         <v>394.6863306254954</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649689</v>
+        <v>709.848946864969</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7363,19 +7363,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010313</v>
       </c>
     </row>
     <row r="41">
@@ -7391,37 +7391,37 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7488,25 +7488,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277033</v>
+        <v>485.404702608941</v>
       </c>
       <c r="L42" t="n">
-        <v>534.5429807341673</v>
+        <v>732.169830515405</v>
       </c>
       <c r="M42" t="n">
-        <v>1247.466478653857</v>
+        <v>1039.489963795367</v>
       </c>
       <c r="N42" t="n">
-        <v>2051.878056918008</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O42" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108319</v>
       </c>
       <c r="C43" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229663</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506718</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083198</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504505</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103122</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
@@ -7567,13 +7567,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525398</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7591,7 +7591,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S43" t="n">
         <v>1865.165908942116</v>
@@ -7606,13 +7606,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045196</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010305</v>
       </c>
     </row>
     <row r="44">
@@ -7728,19 +7728,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>966.6932390011336</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1296.555866665166</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P45" t="n">
         <v>2317.834075963124</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108324</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229665</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506718</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083198</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504505</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103122</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
@@ -7804,13 +7804,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525398</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7825,31 +7825,31 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384655</v>
       </c>
       <c r="R46" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S46" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942115</v>
       </c>
       <c r="T46" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771662</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W46" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X46" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045201</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010318</v>
+        <v>772.288612901031</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8058,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142008</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8073,7 +8073,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>199.0269485415591</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8307,13 +8307,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783518</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8541,7 +8541,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.9065542451761</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8769,28 +8769,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>94.13752431970619</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>124.3400780863232</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,7 +9003,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9012,19 +9012,19 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>423.3376789165117</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>50.6266194094365</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445218</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9240,7 +9240,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>96.03744927814714</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9255,13 +9255,13 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>230.7151863772039</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445218</v>
@@ -9477,10 +9477,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>176.717654749845</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9492,16 +9492,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>277.6717966208067</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,31 +9714,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>5.100663089359983</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9951,19 +9951,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>87.16935584025379</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>409.700368322958</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -9972,7 +9972,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>34.78428385445217</v>
@@ -10118,7 +10118,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10188,13 +10188,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10206,7 +10206,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208064</v>
+        <v>32.9224866577558</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10355,7 +10355,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10434,19 +10434,19 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>285.1031356539328</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>34.78428385445217</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,25 +10662,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>32.92248665775577</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10826,7 +10826,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504502</v>
       </c>
       <c r="M38" t="n">
         <v>449.5135334928325</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298293</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,13 +10899,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>9.900512684485363</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10914,10 +10914,10 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11139,13 +11139,13 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>199.6230805871087</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>479.3423743435536</v>
@@ -11157,10 +11157,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11376,7 +11376,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11388,10 +11388,10 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>223.674264993448</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208067</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23473,7 +23473,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>82.39383318338574</v>
+        <v>192.3581855871786</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23662,7 +23662,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
@@ -23671,7 +23671,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>82.39383318338592</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,16 +23710,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>188.9358337136114</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23893,19 +23893,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>52.55479583517099</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>34.46969524489716</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24124,19 +24124,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>125.0437558179246</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -24172,16 +24172,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>57.18000134477765</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24190,10 +24190,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24382,7 +24382,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,19 +24409,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>103.0576765518771</v>
+        <v>50.63978772762316</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24601,10 +24601,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>47.61130416987093</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24613,10 +24613,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24646,28 +24646,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>91.36284673070972</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,16 +24835,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533803</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>37.15354716552632</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801213</v>
+        <v>91.2307060180121</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571494</v>
+        <v>53.61686283108262</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>163.3813967235377</v>
       </c>
     </row>
     <row r="32">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>725239.1214241709</v>
+        <v>725239.121424171</v>
       </c>
     </row>
     <row r="7">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>725239.1214241708</v>
+        <v>725239.121424171</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>753666.6611177811</v>
+        <v>753666.6611177812</v>
       </c>
     </row>
     <row r="12">
@@ -26317,40 +26317,40 @@
         <v>697885.5043846412</v>
       </c>
       <c r="D2" t="n">
-        <v>697885.5043846413</v>
+        <v>697885.5043846411</v>
       </c>
       <c r="E2" t="n">
-        <v>664749.4015541052</v>
+        <v>664749.4015541049</v>
       </c>
       <c r="F2" t="n">
+        <v>664749.4015541051</v>
+      </c>
+      <c r="G2" t="n">
         <v>664749.401554105</v>
-      </c>
-      <c r="G2" t="n">
-        <v>664749.4015541051</v>
       </c>
       <c r="H2" t="n">
         <v>664749.4015541049</v>
       </c>
       <c r="I2" t="n">
-        <v>664749.4015541051</v>
+        <v>664749.4015541045</v>
       </c>
       <c r="J2" t="n">
-        <v>664749.4015541049</v>
+        <v>664749.4015541052</v>
       </c>
       <c r="K2" t="n">
-        <v>691597.6334869594</v>
+        <v>691597.6334869596</v>
       </c>
       <c r="L2" t="n">
-        <v>697885.5043846408</v>
+        <v>697885.5043846407</v>
       </c>
       <c r="M2" t="n">
-        <v>697885.5043846404</v>
+        <v>697885.5043846407</v>
       </c>
       <c r="N2" t="n">
-        <v>697885.5043846408</v>
+        <v>697885.5043846405</v>
       </c>
       <c r="O2" t="n">
-        <v>697885.5043846411</v>
+        <v>697885.5043846407</v>
       </c>
       <c r="P2" t="n">
         <v>697885.5043846408</v>
@@ -26387,13 +26387,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284564</v>
+        <v>44162.60530284566</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.9068008669</v>
+        <v>10342.90680086688</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
@@ -26427,10 +26427,10 @@
         <v>22174.60758687071</v>
       </c>
       <c r="F4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687073</v>
       </c>
       <c r="G4" t="n">
-        <v>22174.60758687073</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="H4" t="n">
         <v>22174.60758687071</v>
@@ -26439,22 +26439,22 @@
         <v>22174.60758687071</v>
       </c>
       <c r="J4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687068</v>
       </c>
       <c r="K4" t="n">
-        <v>40339.23010106724</v>
+        <v>40339.23010106725</v>
       </c>
       <c r="L4" t="n">
+        <v>44593.3948281912</v>
+      </c>
+      <c r="M4" t="n">
         <v>44593.39482819119</v>
       </c>
-      <c r="M4" t="n">
-        <v>44593.39482819117</v>
-      </c>
       <c r="N4" t="n">
-        <v>44593.39482819116</v>
+        <v>44593.39482819119</v>
       </c>
       <c r="O4" t="n">
-        <v>44593.39482819119</v>
+        <v>44593.39482819121</v>
       </c>
       <c r="P4" t="n">
         <v>44593.39482819119</v>
@@ -26485,10 +26485,10 @@
         <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="I5" t="n">
         <v>91987.32594871662</v>
-      </c>
-      <c r="I5" t="n">
-        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871664</v>
@@ -26500,10 +26500,10 @@
         <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
         <v>97715.10582002539</v>
@@ -26525,40 +26525,40 @@
         <v>449393.5585347073</v>
       </c>
       <c r="D6" t="n">
-        <v>449393.5585347075</v>
+        <v>449393.5585347073</v>
       </c>
       <c r="E6" t="n">
-        <v>25427.43154162174</v>
+        <v>25329.97241564923</v>
       </c>
       <c r="F6" t="n">
-        <v>550587.4680185177</v>
+        <v>550490.0088925457</v>
       </c>
       <c r="G6" t="n">
-        <v>550587.4680185178</v>
+        <v>550490.0088925456</v>
       </c>
       <c r="H6" t="n">
-        <v>550587.4680185176</v>
+        <v>550490.0088925455</v>
       </c>
       <c r="I6" t="n">
-        <v>550587.4680185178</v>
+        <v>550490.0088925451</v>
       </c>
       <c r="J6" t="n">
-        <v>374164.2488259246</v>
+        <v>374066.7896999528</v>
       </c>
       <c r="K6" t="n">
-        <v>510467.5895528238</v>
+        <v>510449.0958148896</v>
       </c>
       <c r="L6" t="n">
         <v>545234.0969355573</v>
       </c>
       <c r="M6" t="n">
-        <v>420775.9885025866</v>
+        <v>420775.988502587</v>
       </c>
       <c r="N6" t="n">
-        <v>555577.0037364243</v>
+        <v>555577.0037364239</v>
       </c>
       <c r="O6" t="n">
-        <v>555577.0037364245</v>
+        <v>555577.003736424</v>
       </c>
       <c r="P6" t="n">
         <v>511414.3984335787</v>
@@ -26710,7 +26710,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="L2" t="n">
         <v>68.13189012964067</v>
@@ -26719,10 +26719,10 @@
         <v>68.13189012964065</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P2" t="n">
         <v>68.13189012964065</v>
@@ -26753,10 +26753,10 @@
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="I3" t="n">
         <v>830.3824054541002</v>
-      </c>
-      <c r="I3" t="n">
-        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541003</v>
@@ -26774,7 +26774,7 @@
         <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108362</v>
+        <v>12.9286335010836</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855706</v>
       </c>
     </row>
     <row r="3">
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855707</v>
       </c>
     </row>
     <row r="3">
@@ -27376,22 +27376,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>73.03089870524497</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>112.9202716085207</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27436,7 +27436,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27445,7 +27445,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,19 +27534,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27582,16 +27582,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>165.2350897910484</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27600,7 +27600,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>69.58249272688988</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27616,7 +27616,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27625,13 +27625,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>36.84990715929891</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>294.594581183255</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27789,10 +27789,10 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>51.23175176087076</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>45.199959188537</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27825,22 +27825,22 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>35.43826180874041</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>144.3619051110313</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27868,10 +27868,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>38.76968264892353</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27913,13 +27913,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,28 +28011,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>107.5829646831825</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28065,10 +28065,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>118.6827785106058</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28582,7 +28582,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28618,7 +28618,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>1.989519660128281e-13</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855707</v>
       </c>
     </row>
     <row r="32">
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30052,7 +30052,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="41">
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="44">
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32549,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32558,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32576,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32786,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32795,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32813,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34778,7 +34778,7 @@
         <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.389756104752</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34793,7 +34793,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>220.2054057751866</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35027,13 +35027,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35264,7 +35264,7 @@
         <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35489,28 +35489,28 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>244.7129629076454</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N12" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>331.4334930178478</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
         <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
         <v>150.5754385879392</v>
@@ -35732,19 +35732,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>138.6396521945106</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
         <v>528.689756130333</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>137.9476282330538</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
         <v>415.0406756005178</v>
@@ -35975,13 +35975,13 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>437.8086013087286</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>327.2930933377842</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P21" t="n">
-        <v>484.7652115523313</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,13 +36358,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>254.3583680453843</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36528,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36671,19 +36671,19 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>237.744794428193</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>720.1247453734243</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
         <v>282.3637022411082</v>
@@ -36692,7 +36692,7 @@
         <v>207.0934149315247</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36838,7 +36838,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,13 +36908,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K30" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
         <v>310.4243770504663</v>
@@ -36926,7 +36926,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523311</v>
+        <v>240.0159015892805</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412257</v>
+        <v>67.7110267941226</v>
       </c>
       <c r="K31" t="n">
         <v>206.9056851584676</v>
@@ -37002,13 +37002,13 @@
         <v>328.4801344341607</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491599</v>
+        <v>291.44060814916</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403578</v>
+        <v>233.5868572403579</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.4289566004318</v>
+        <v>94.42895660043183</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K32" t="n">
         <v>528.6897561303331</v>
@@ -37075,7 +37075,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37154,19 +37154,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415665</v>
+        <v>618.2977090519457</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P33" t="n">
         <v>207.0934149315247</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,25 +37382,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K36" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
         <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>366.1170600557687</v>
       </c>
       <c r="O36" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37546,7 +37546,7 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M38" t="n">
         <v>805.3296502221117</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,13 +37619,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K39" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>259.1582176405097</v>
       </c>
       <c r="M39" t="n">
         <v>310.4243770504663</v>
@@ -37634,10 +37634,10 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520617</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37713,10 +37713,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37780,13 +37780,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>350.198519175048</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520617</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37947,13 +37947,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38096,7 +38096,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
@@ -38108,10 +38108,10 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>506.0379672345562</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523313</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
